--- a/JdR/Liste de dons LG Apocalypse.xlsx
+++ b/JdR/Liste de dons LG Apocalypse.xlsx
@@ -1,35 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B411FF0-3C90-4149-BB38-04544FE03610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DAEAA998-F97E-4854-B203-CC34D503BB0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$420</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$420</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="502">
   <si>
     <t>Liste</t>
   </si>
@@ -1210,9 +1204,6 @@
     <t>Le feu fait des dégâts contondants au LG</t>
   </si>
   <si>
-    <t>1G</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -1222,9 +1213,6 @@
     <t>Résistance</t>
   </si>
   <si>
-    <t>Charisme + Subterfuge (diff 7)</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -1237,18 +1225,9 @@
     <t>Les objets technologiques cessent de fonctionner</t>
   </si>
   <si>
-    <t>Manipulation + Artisanats (diff variable)</t>
-  </si>
-  <si>
     <t>Parle toutes les langues</t>
   </si>
   <si>
-    <t>N/R</t>
-  </si>
-  <si>
-    <t>Intelligence + Erudition (diff 7)</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -1261,9 +1240,6 @@
     <t>Calme un LG en frénesie</t>
   </si>
   <si>
-    <t>Manipulation + Instinct primal (diff 8)</t>
-  </si>
-  <si>
     <t>instantané</t>
   </si>
   <si>
@@ -1294,9 +1270,6 @@
     <t>Shamanisme</t>
   </si>
   <si>
-    <t>Manipulation + Rituels (diff 7)</t>
-  </si>
-  <si>
     <t>Le LG peut sentir les manifestations du Ver à proximité de lui</t>
   </si>
   <si>
@@ -1336,9 +1309,6 @@
     <t>Permet d'avoir des infos basiques sur un esprit</t>
   </si>
   <si>
-    <t>Perception + Occultisme (diff 8)</t>
-  </si>
-  <si>
     <t>La queue du LG lui permet de prendre des trucs</t>
   </si>
   <si>
@@ -1372,9 +1342,6 @@
     <t>Invisiblité tant qu'il est immobile</t>
   </si>
   <si>
-    <t>Vigueur + Furtivité (diff 5)</t>
-  </si>
-  <si>
     <t>tant qu'il est immobile</t>
   </si>
   <si>
@@ -1387,15 +1354,9 @@
     <t>Transformation en animaux réels ou fictifs</t>
   </si>
   <si>
-    <t>Intelligence + Animaux (diff 6)</t>
-  </si>
-  <si>
     <t>Permet de parler aux esprits</t>
   </si>
   <si>
-    <t>Intelligence + Empathie (diff variable)</t>
-  </si>
-  <si>
     <t>Permet de guérir autrui</t>
   </si>
   <si>
@@ -1412,6 +1373,163 @@
   </si>
   <si>
     <t>Tant qu'il parle</t>
+  </si>
+  <si>
+    <t>Savoir</t>
+  </si>
+  <si>
+    <t>La méditation donne accès aux connaissances des ancestres</t>
+  </si>
+  <si>
+    <t>Gnose</t>
+  </si>
+  <si>
+    <t>un court moment</t>
+  </si>
+  <si>
+    <t>Permet de sentir la surabondance énergétique de la Trinité en un lieu</t>
+  </si>
+  <si>
+    <t>Libère la cible de tout entrave physique ou mentale</t>
+  </si>
+  <si>
+    <t>Charisme + Instinct Primal</t>
+  </si>
+  <si>
+    <t>3 heures par réussite</t>
+  </si>
+  <si>
+    <t>Réveille les créatures du Ver les empêche de se rendormir</t>
+  </si>
+  <si>
+    <t>Fascine les auditeurs jusqu'à les placer dans l'inaction</t>
+  </si>
+  <si>
+    <t>1 tour par réussite</t>
+  </si>
+  <si>
+    <t>Création d'êtres vivants</t>
+  </si>
+  <si>
+    <t>1 scène par 1 Gnose</t>
+  </si>
+  <si>
+    <t>Armes naturelles</t>
+  </si>
+  <si>
+    <t>Aiguisse ses griffes pour faire plus mal</t>
+  </si>
+  <si>
+    <t>1 R</t>
+  </si>
+  <si>
+    <t>Donne 1 Volonté à ses compagnons</t>
+  </si>
+  <si>
+    <t>Projete sa cible au moindre contact</t>
+  </si>
+  <si>
+    <t>Force + Intimidation</t>
+  </si>
+  <si>
+    <t>Paralyse sa proie de peur</t>
+  </si>
+  <si>
+    <t>Change les griffes du LG en argent</t>
+  </si>
+  <si>
+    <t>Perception + Connaissance de la rue (urbain)
+Perception + Survie (sauvage)</t>
+  </si>
+  <si>
+    <t>Permet d'obtenir des infos des esprits de la nature OU de la ville</t>
+  </si>
+  <si>
+    <t>La difficulté de toute attaque mentale passe à 10</t>
+  </si>
+  <si>
+    <t>Esquive tous les coups d'un combattant</t>
+  </si>
+  <si>
+    <t>1 scène ou tant qu'il n'attaque pas</t>
+  </si>
+  <si>
+    <t>Augmente l'absorption des dégâts</t>
+  </si>
+  <si>
+    <t>Vigueur + Survie</t>
+  </si>
+  <si>
+    <t>Immunité aux toxines normales (poisons, drogues, alcool, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En refusant de partir le LG obtient des bonus à toutes ses actions physiques </t>
+  </si>
+  <si>
+    <t>jusqu'à avoir vaincu de ses adversaires</t>
+  </si>
+  <si>
+    <t>Peut convaincre un esprit élémentaire de modifier ou détruire sa forme terrestre</t>
+  </si>
+  <si>
+    <t>Permet d'utiliser plusieurs fois le même talen</t>
+  </si>
+  <si>
+    <t>reflexe</t>
+  </si>
+  <si>
+    <t>Facilite l'utilisation d'outils faits par l'homme</t>
+  </si>
+  <si>
+    <t>Difficulté</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Astuce + Artisanats</t>
+  </si>
+  <si>
+    <t>Charisme + Subterfuge</t>
+  </si>
+  <si>
+    <t>Manipulation + Artisanats</t>
+  </si>
+  <si>
+    <t>Intelligence + Erudition</t>
+  </si>
+  <si>
+    <t>Manipulation + Instinct primal</t>
+  </si>
+  <si>
+    <t>Manipulation + Rituels</t>
+  </si>
+  <si>
+    <t>Vigueur + Furtivité</t>
+  </si>
+  <si>
+    <t>Intelligence + Animaux</t>
+  </si>
+  <si>
+    <t>Intelligence + Empathie</t>
+  </si>
+  <si>
+    <t>Perception + Enigmes</t>
+  </si>
+  <si>
+    <t>Charisme + Représentation</t>
+  </si>
+  <si>
+    <t>Intelligence + Représentation</t>
+  </si>
+  <si>
+    <t>Volonté</t>
+  </si>
+  <si>
+    <t>Astuce + Athlétisme</t>
+  </si>
+  <si>
+    <t>prochain test</t>
   </si>
 </sst>
 </file>
@@ -1453,11 +1571,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1738,29 +1865,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:K420"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E113" sqref="E113"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -1779,7 +1906,7 @@
       <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>388</v>
       </c>
       <c r="H1" t="s">
@@ -1789,10 +1916,13 @@
         <v>391</v>
       </c>
       <c r="J1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -1805,12 +1935,30 @@
       <c r="D2" t="s">
         <v>86</v>
       </c>
+      <c r="E2" t="s">
+        <v>300</v>
+      </c>
       <c r="F2" t="str">
         <f>IF(COUNTIF(D:D,"="&amp;D2)=1,"Oui","Non")</f>
         <v>Oui</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G2" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="H2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>163</v>
       </c>
@@ -1828,7 +1976,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>163</v>
       </c>
@@ -1842,26 +1990,26 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="4" t="s">
         <v>392</v>
       </c>
       <c r="H4" t="s">
+        <v>433</v>
+      </c>
+      <c r="I4" t="s">
         <v>393</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>394</v>
       </c>
-      <c r="J4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>163</v>
       </c>
@@ -1879,7 +2027,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -1899,20 +2047,23 @@
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G6" t="s">
-        <v>399</v>
+      <c r="G6" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="H6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -1932,20 +2083,23 @@
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>401</v>
+      <c r="G7" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="H7" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="I7" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="J7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+      <c r="K7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>163</v>
       </c>
@@ -1959,26 +2113,29 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>403</v>
+      <c r="G8" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>163</v>
       </c>
@@ -1996,7 +2153,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>163</v>
       </c>
@@ -2014,7 +2171,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>163</v>
       </c>
@@ -2028,26 +2185,29 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G11" t="s">
-        <v>409</v>
+      <c r="G11" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="H11" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I11" t="s">
-        <v>410</v>
-      </c>
-      <c r="J11" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+      <c r="K11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -2061,26 +2221,29 @@
         <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G12" t="s">
-        <v>413</v>
+      <c r="G12" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="H12" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="I12" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="J12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+      <c r="K12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>163</v>
       </c>
@@ -2098,7 +2261,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>163</v>
       </c>
@@ -2116,7 +2279,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2130,26 +2293,26 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G15" t="s">
-        <v>416</v>
+      <c r="G15" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="H15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I15" t="s">
-        <v>417</v>
-      </c>
-      <c r="J15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+      <c r="K15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>163</v>
       </c>
@@ -2167,7 +2330,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>163</v>
       </c>
@@ -2178,29 +2341,32 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G17" t="s">
-        <v>419</v>
+      <c r="G17" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="H17" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="I17" t="s">
-        <v>421</v>
-      </c>
-      <c r="J17" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>492</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -2218,7 +2384,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>163</v>
       </c>
@@ -2236,7 +2402,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>163</v>
       </c>
@@ -2254,7 +2420,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>163</v>
       </c>
@@ -2272,7 +2438,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>163</v>
       </c>
@@ -2290,7 +2456,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>163</v>
       </c>
@@ -2308,7 +2474,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>163</v>
       </c>
@@ -2326,7 +2492,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>163</v>
       </c>
@@ -2344,7 +2510,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -2358,26 +2524,26 @@
         <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G26" t="s">
-        <v>422</v>
+      <c r="G26" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="H26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I26" t="s">
-        <v>423</v>
-      </c>
-      <c r="J26" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K26" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>163</v>
       </c>
@@ -2395,7 +2561,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>163</v>
       </c>
@@ -2409,26 +2575,26 @@
         <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G28" t="s">
-        <v>424</v>
+      <c r="G28" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="H28" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I28" t="s">
-        <v>394</v>
-      </c>
-      <c r="J28" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>163</v>
       </c>
@@ -2446,7 +2612,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>163</v>
       </c>
@@ -2460,26 +2626,26 @@
         <v>30</v>
       </c>
       <c r="E30" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G30" t="s">
-        <v>427</v>
+      <c r="G30" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="H30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I30" t="s">
-        <v>428</v>
-      </c>
-      <c r="J30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>421</v>
+      </c>
+      <c r="K30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>163</v>
       </c>
@@ -2497,7 +2663,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>163</v>
       </c>
@@ -2515,7 +2681,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -2533,7 +2699,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -2551,7 +2717,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>163</v>
       </c>
@@ -2569,7 +2735,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>163</v>
       </c>
@@ -2587,7 +2753,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -2605,7 +2771,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -2623,7 +2789,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -2641,7 +2807,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>163</v>
       </c>
@@ -2659,7 +2825,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>163</v>
       </c>
@@ -2677,7 +2843,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>163</v>
       </c>
@@ -2695,7 +2861,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>163</v>
       </c>
@@ -2709,26 +2875,26 @@
         <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G43" t="s">
-        <v>430</v>
+      <c r="G43" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="H43" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I43" t="s">
-        <v>431</v>
-      </c>
-      <c r="J43" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>424</v>
+      </c>
+      <c r="K43" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>163</v>
       </c>
@@ -2746,7 +2912,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>163</v>
       </c>
@@ -2760,26 +2926,26 @@
         <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G45" t="s">
-        <v>432</v>
+      <c r="G45" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="H45" t="s">
+        <v>433</v>
+      </c>
+      <c r="I45" t="s">
         <v>393</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>394</v>
       </c>
-      <c r="J45" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>163</v>
       </c>
@@ -2797,7 +2963,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>163</v>
       </c>
@@ -2811,26 +2977,26 @@
         <v>48</v>
       </c>
       <c r="E47" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G47" t="s">
-        <v>433</v>
+      <c r="G47" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="H47" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I47" t="s">
-        <v>394</v>
-      </c>
-      <c r="J47" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K47" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>163</v>
       </c>
@@ -2844,26 +3010,29 @@
         <v>49</v>
       </c>
       <c r="E48" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G48" t="s">
-        <v>434</v>
+      <c r="G48" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="H48" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I48" t="s">
-        <v>435</v>
-      </c>
-      <c r="J48" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>163</v>
       </c>
@@ -2881,7 +3050,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>163</v>
       </c>
@@ -2899,7 +3068,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>163</v>
       </c>
@@ -2917,7 +3086,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -2935,7 +3104,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>163</v>
       </c>
@@ -2953,7 +3122,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -2967,26 +3136,26 @@
         <v>55</v>
       </c>
       <c r="E54" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G54" t="s">
-        <v>436</v>
+      <c r="G54" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="H54" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I54" t="s">
-        <v>437</v>
-      </c>
-      <c r="J54" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+      <c r="K54" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>163</v>
       </c>
@@ -3000,26 +3169,26 @@
         <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G55" t="s">
-        <v>440</v>
+      <c r="G55" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="H55" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I55" t="s">
-        <v>394</v>
-      </c>
-      <c r="J55" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -3037,7 +3206,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>163</v>
       </c>
@@ -3055,7 +3224,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>163</v>
       </c>
@@ -3069,26 +3238,26 @@
         <v>59</v>
       </c>
       <c r="E58" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G58" t="s">
-        <v>443</v>
+      <c r="G58" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="H58" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
-      </c>
-      <c r="J58" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>163</v>
       </c>
@@ -3106,7 +3275,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -3124,7 +3293,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>164</v>
       </c>
@@ -3138,26 +3307,26 @@
         <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F61" t="str">
         <f t="shared" si="0"/>
         <v>Non</v>
       </c>
-      <c r="G61" t="s">
-        <v>445</v>
+      <c r="G61" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="H61" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I61" t="s">
-        <v>394</v>
-      </c>
-      <c r="J61" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -3175,7 +3344,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>164</v>
       </c>
@@ -3193,7 +3362,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>164</v>
       </c>
@@ -3211,7 +3380,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>164</v>
       </c>
@@ -3229,7 +3398,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>164</v>
       </c>
@@ -3247,7 +3416,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>164</v>
       </c>
@@ -3261,26 +3430,29 @@
         <v>69</v>
       </c>
       <c r="E67" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F67" t="str">
         <f t="shared" ref="F67:F130" si="1">IF(COUNTIF(D:D,"="&amp;D67)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
-      <c r="G67" t="s">
-        <v>446</v>
+      <c r="G67" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="H67" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I67" t="s">
-        <v>447</v>
-      </c>
-      <c r="J67" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+      <c r="J67">
+        <v>5</v>
+      </c>
+      <c r="K67" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>164</v>
       </c>
@@ -3294,26 +3466,26 @@
         <v>70</v>
       </c>
       <c r="E68" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F68" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G68" t="s">
-        <v>450</v>
+      <c r="G68" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="H68" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I68" t="s">
-        <v>394</v>
-      </c>
-      <c r="J68" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K68" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>164</v>
       </c>
@@ -3331,7 +3503,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -3349,7 +3521,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -3367,7 +3539,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>164</v>
       </c>
@@ -3385,7 +3557,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>164</v>
       </c>
@@ -3403,7 +3575,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -3417,26 +3589,26 @@
         <v>55</v>
       </c>
       <c r="E74" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F74" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G74" t="s">
-        <v>436</v>
+      <c r="G74" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="H74" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I74" t="s">
-        <v>437</v>
-      </c>
-      <c r="J74" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+      <c r="K74" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>164</v>
       </c>
@@ -3454,7 +3626,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>164</v>
       </c>
@@ -3472,7 +3644,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>164</v>
       </c>
@@ -3490,7 +3662,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>164</v>
       </c>
@@ -3504,26 +3676,29 @@
         <v>79</v>
       </c>
       <c r="E78" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F78" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G78" t="s">
-        <v>451</v>
+      <c r="G78" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="H78" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I78" t="s">
-        <v>452</v>
-      </c>
-      <c r="J78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>494</v>
+      </c>
+      <c r="J78">
+        <v>6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -3541,7 +3716,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -3559,7 +3734,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -3577,7 +3752,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>164</v>
       </c>
@@ -3591,26 +3766,26 @@
         <v>87</v>
       </c>
       <c r="E82" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F82" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G82" t="s">
-        <v>453</v>
+      <c r="G82" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="H82" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I82" t="s">
-        <v>394</v>
-      </c>
-      <c r="J82" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K82" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>164</v>
       </c>
@@ -3628,7 +3803,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>164</v>
       </c>
@@ -3642,26 +3817,26 @@
         <v>89</v>
       </c>
       <c r="E84" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F84" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G84" t="s">
-        <v>422</v>
+      <c r="G84" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="H84" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I84" t="s">
-        <v>423</v>
-      </c>
-      <c r="J84" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K84" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>164</v>
       </c>
@@ -3681,20 +3856,23 @@
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G85" t="s">
-        <v>455</v>
+      <c r="G85" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="H85" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I85" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="J85" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+      <c r="K85" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>164</v>
       </c>
@@ -3712,7 +3890,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -3730,7 +3908,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>164</v>
       </c>
@@ -3744,26 +3922,29 @@
         <v>49</v>
       </c>
       <c r="E88" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G88" t="s">
-        <v>434</v>
+      <c r="G88" s="4" t="s">
+        <v>427</v>
       </c>
       <c r="H88" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I88" t="s">
-        <v>435</v>
-      </c>
-      <c r="J88" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="J88">
+        <v>8</v>
+      </c>
+      <c r="K88" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>164</v>
       </c>
@@ -3781,7 +3962,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>164</v>
       </c>
@@ -3795,26 +3976,26 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G90" t="s">
-        <v>456</v>
+      <c r="G90" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="H90" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I90" t="s">
+        <v>393</v>
+      </c>
+      <c r="K90" t="s">
         <v>394</v>
       </c>
-      <c r="J90" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>164</v>
       </c>
@@ -3832,7 +4013,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>164</v>
       </c>
@@ -3850,7 +4031,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -3868,7 +4049,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -3886,7 +4067,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>164</v>
       </c>
@@ -3897,29 +4078,32 @@
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E95" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F95" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G95" t="s">
-        <v>419</v>
+      <c r="G95" s="4" t="s">
+        <v>413</v>
       </c>
       <c r="H95" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="I95" t="s">
-        <v>421</v>
-      </c>
-      <c r="J95" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>492</v>
+      </c>
+      <c r="J95">
+        <v>7</v>
+      </c>
+      <c r="K95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>164</v>
       </c>
@@ -3937,7 +4121,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>164</v>
       </c>
@@ -3955,7 +4139,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>164</v>
       </c>
@@ -3973,7 +4157,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -3991,7 +4175,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>164</v>
       </c>
@@ -4009,7 +4193,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>164</v>
       </c>
@@ -4027,7 +4211,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>164</v>
       </c>
@@ -4045,7 +4229,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>164</v>
       </c>
@@ -4063,7 +4247,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>164</v>
       </c>
@@ -4083,20 +4267,23 @@
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G104" t="s">
-        <v>399</v>
+      <c r="G104" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="H104" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I104" t="s">
-        <v>397</v>
-      </c>
-      <c r="J104" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+      <c r="J104">
+        <v>7</v>
+      </c>
+      <c r="K104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -4110,26 +4297,26 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F105" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G105" t="s">
-        <v>457</v>
+      <c r="G105" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="H105" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I105" t="s">
+        <v>393</v>
+      </c>
+      <c r="K105" t="s">
         <v>394</v>
       </c>
-      <c r="J105" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>164</v>
       </c>
@@ -4147,7 +4334,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>164</v>
       </c>
@@ -4165,7 +4352,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>164</v>
       </c>
@@ -4185,20 +4372,20 @@
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G108" t="s">
-        <v>458</v>
+      <c r="G108" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="H108" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I108" t="s">
-        <v>459</v>
-      </c>
-      <c r="J108" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+      <c r="K108" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>164</v>
       </c>
@@ -4216,7 +4403,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>164</v>
       </c>
@@ -4234,7 +4421,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>164</v>
       </c>
@@ -4252,7 +4439,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>164</v>
       </c>
@@ -4270,7 +4457,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>164</v>
       </c>
@@ -4282,13 +4469,28 @@
       </c>
       <c r="D113" t="s">
         <v>116</v>
+      </c>
+      <c r="E113" t="s">
+        <v>450</v>
       </c>
       <c r="F113" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G113" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H113" t="s">
+        <v>396</v>
+      </c>
+      <c r="I113" t="s">
+        <v>452</v>
+      </c>
+      <c r="K113" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>164</v>
       </c>
@@ -4300,13 +4502,31 @@
       </c>
       <c r="D114" t="s">
         <v>117</v>
+      </c>
+      <c r="E114" t="s">
+        <v>419</v>
       </c>
       <c r="F114" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G114" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H114" t="s">
+        <v>433</v>
+      </c>
+      <c r="I114" t="s">
+        <v>496</v>
+      </c>
+      <c r="J114">
+        <v>8</v>
+      </c>
+      <c r="K114" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>164</v>
       </c>
@@ -4324,7 +4544,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>164</v>
       </c>
@@ -4337,12 +4557,15 @@
       <c r="D116" t="s">
         <v>119</v>
       </c>
+      <c r="E116" t="s">
+        <v>302</v>
+      </c>
       <c r="F116" t="str">
         <f t="shared" si="1"/>
         <v>Oui</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>164</v>
       </c>
@@ -4360,7 +4583,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>164</v>
       </c>
@@ -4378,7 +4601,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>164</v>
       </c>
@@ -4396,7 +4619,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>164</v>
       </c>
@@ -4404,17 +4627,32 @@
         <v>105</v>
       </c>
       <c r="C120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D120" t="s">
         <v>123</v>
+      </c>
+      <c r="E120" t="s">
+        <v>431</v>
       </c>
       <c r="F120" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G120" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H120" t="s">
+        <v>396</v>
+      </c>
+      <c r="I120" t="s">
+        <v>393</v>
+      </c>
+      <c r="K120" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>164</v>
       </c>
@@ -4432,7 +4670,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>164</v>
       </c>
@@ -4450,7 +4688,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>164</v>
       </c>
@@ -4468,7 +4706,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>164</v>
       </c>
@@ -4486,7 +4724,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>164</v>
       </c>
@@ -4504,7 +4742,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>164</v>
       </c>
@@ -4518,26 +4756,26 @@
         <v>46</v>
       </c>
       <c r="E126" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F126" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G126" t="s">
-        <v>432</v>
+      <c r="G126" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="H126" t="s">
+        <v>433</v>
+      </c>
+      <c r="I126" t="s">
         <v>393</v>
       </c>
-      <c r="I126" t="s">
+      <c r="K126" t="s">
         <v>394</v>
       </c>
-      <c r="J126" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>164</v>
       </c>
@@ -4555,7 +4793,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>164</v>
       </c>
@@ -4575,20 +4813,20 @@
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-      <c r="G128" t="s">
-        <v>458</v>
+      <c r="G128" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="H128" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I128" t="s">
-        <v>459</v>
-      </c>
-      <c r="J128" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+      <c r="K128" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>164</v>
       </c>
@@ -4606,7 +4844,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>164</v>
       </c>
@@ -4618,13 +4856,28 @@
       </c>
       <c r="D130" t="s">
         <v>132</v>
+      </c>
+      <c r="E130" t="s">
+        <v>431</v>
       </c>
       <c r="F130" t="str">
         <f t="shared" si="1"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G130" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H130" t="s">
+        <v>433</v>
+      </c>
+      <c r="I130" t="s">
+        <v>456</v>
+      </c>
+      <c r="K130" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -4642,7 +4895,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>164</v>
       </c>
@@ -4654,13 +4907,31 @@
       </c>
       <c r="D132" t="s">
         <v>134</v>
+      </c>
+      <c r="E132" t="s">
+        <v>302</v>
       </c>
       <c r="F132" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G132" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H132" t="s">
+        <v>433</v>
+      </c>
+      <c r="I132" t="s">
+        <v>497</v>
+      </c>
+      <c r="J132" t="s">
+        <v>486</v>
+      </c>
+      <c r="K132" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>164</v>
       </c>
@@ -4678,7 +4949,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>164</v>
       </c>
@@ -4696,7 +4967,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>164</v>
       </c>
@@ -4714,7 +4985,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>164</v>
       </c>
@@ -4732,7 +5003,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>164</v>
       </c>
@@ -4750,7 +5021,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>164</v>
       </c>
@@ -4768,7 +5039,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>164</v>
       </c>
@@ -4780,13 +5051,31 @@
       </c>
       <c r="D139" t="s">
         <v>141</v>
+      </c>
+      <c r="E139" t="s">
+        <v>431</v>
       </c>
       <c r="F139" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G139" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H139" t="s">
+        <v>396</v>
+      </c>
+      <c r="I139" t="s">
+        <v>498</v>
+      </c>
+      <c r="J139">
+        <v>8</v>
+      </c>
+      <c r="K139" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -4804,7 +5093,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>164</v>
       </c>
@@ -4816,13 +5105,28 @@
       </c>
       <c r="D141" t="s">
         <v>123</v>
+      </c>
+      <c r="E141" t="s">
+        <v>431</v>
       </c>
       <c r="F141" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G141" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H141" t="s">
+        <v>396</v>
+      </c>
+      <c r="I141" t="s">
+        <v>393</v>
+      </c>
+      <c r="K141" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>164</v>
       </c>
@@ -4840,7 +5144,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>164</v>
       </c>
@@ -4852,13 +5156,28 @@
       </c>
       <c r="D143" t="s">
         <v>145</v>
+      </c>
+      <c r="E143" t="s">
+        <v>463</v>
       </c>
       <c r="F143" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G143" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H143" t="s">
+        <v>465</v>
+      </c>
+      <c r="I143" t="s">
+        <v>393</v>
+      </c>
+      <c r="K143" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>164</v>
       </c>
@@ -4870,13 +5189,28 @@
       </c>
       <c r="D144" t="s">
         <v>146</v>
+      </c>
+      <c r="E144" t="s">
+        <v>431</v>
       </c>
       <c r="F144" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G144" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H144" t="s">
+        <v>433</v>
+      </c>
+      <c r="I144" t="s">
+        <v>393</v>
+      </c>
+      <c r="K144" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>164</v>
       </c>
@@ -4888,13 +5222,31 @@
       </c>
       <c r="D145" t="s">
         <v>147</v>
+      </c>
+      <c r="E145" t="s">
+        <v>422</v>
       </c>
       <c r="F145" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G145" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H145" t="s">
+        <v>396</v>
+      </c>
+      <c r="I145" t="s">
+        <v>499</v>
+      </c>
+      <c r="J145" t="s">
+        <v>486</v>
+      </c>
+      <c r="K145" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -4912,7 +5264,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>164</v>
       </c>
@@ -4930,7 +5282,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>164</v>
       </c>
@@ -4948,7 +5300,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>164</v>
       </c>
@@ -4962,26 +5314,26 @@
         <v>30</v>
       </c>
       <c r="E149" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F149" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G149" t="s">
-        <v>427</v>
+      <c r="G149" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="H149" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I149" t="s">
-        <v>428</v>
-      </c>
-      <c r="J149" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>421</v>
+      </c>
+      <c r="K149" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>164</v>
       </c>
@@ -4993,13 +5345,31 @@
       </c>
       <c r="D150" t="s">
         <v>151</v>
+      </c>
+      <c r="E150" t="s">
+        <v>431</v>
       </c>
       <c r="F150" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G150" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H150" t="s">
+        <v>396</v>
+      </c>
+      <c r="I150" t="s">
+        <v>468</v>
+      </c>
+      <c r="J150" t="s">
+        <v>486</v>
+      </c>
+      <c r="K150" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -5017,7 +5387,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -5029,13 +5399,31 @@
       </c>
       <c r="D152" t="s">
         <v>153</v>
+      </c>
+      <c r="E152" t="s">
+        <v>409</v>
       </c>
       <c r="F152" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G152" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H152" t="s">
+        <v>396</v>
+      </c>
+      <c r="I152" t="s">
+        <v>452</v>
+      </c>
+      <c r="J152">
+        <v>7</v>
+      </c>
+      <c r="K152" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>164</v>
       </c>
@@ -5053,7 +5441,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>164</v>
       </c>
@@ -5071,7 +5459,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>164</v>
       </c>
@@ -5085,26 +5473,26 @@
         <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F155" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G155" t="s">
-        <v>416</v>
+      <c r="G155" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="H155" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I155" t="s">
-        <v>417</v>
-      </c>
-      <c r="J155" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+      <c r="K155" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>164</v>
       </c>
@@ -5122,7 +5510,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>164</v>
       </c>
@@ -5140,7 +5528,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -5158,7 +5546,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>164</v>
       </c>
@@ -5176,7 +5564,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>164</v>
       </c>
@@ -5194,7 +5582,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -5212,7 +5600,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -5230,7 +5618,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -5244,26 +5632,26 @@
         <v>89</v>
       </c>
       <c r="E163" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G163" t="s">
-        <v>422</v>
+      <c r="G163" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="H163" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I163" t="s">
-        <v>423</v>
-      </c>
-      <c r="J163" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K163" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>165</v>
       </c>
@@ -5281,7 +5669,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>165</v>
       </c>
@@ -5299,7 +5687,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -5317,7 +5705,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -5331,26 +5719,26 @@
         <v>48</v>
       </c>
       <c r="E167" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G167" t="s">
-        <v>433</v>
+      <c r="G167" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="H167" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I167" t="s">
-        <v>394</v>
-      </c>
-      <c r="J167" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K167" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>165</v>
       </c>
@@ -5368,7 +5756,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>165</v>
       </c>
@@ -5382,26 +5770,29 @@
         <v>69</v>
       </c>
       <c r="E169" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F169" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G169" t="s">
-        <v>446</v>
+      <c r="G169" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="H169" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I169" t="s">
-        <v>447</v>
-      </c>
-      <c r="J169" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+      <c r="J169">
+        <v>5</v>
+      </c>
+      <c r="K169" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>165</v>
       </c>
@@ -5415,26 +5806,29 @@
         <v>9</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F170" s="3" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G170" s="2" t="s">
-        <v>403</v>
+      <c r="G170" s="6" t="s">
+        <v>400</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="J170" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+      <c r="J170" s="2">
+        <v>7</v>
+      </c>
+      <c r="K170" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>165</v>
       </c>
@@ -5452,7 +5846,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>165</v>
       </c>
@@ -5470,7 +5864,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>165</v>
       </c>
@@ -5488,7 +5882,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>165</v>
       </c>
@@ -5506,7 +5900,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>165</v>
       </c>
@@ -5524,7 +5918,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>165</v>
       </c>
@@ -5542,7 +5936,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>165</v>
       </c>
@@ -5560,7 +5954,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>165</v>
       </c>
@@ -5578,7 +5972,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>165</v>
       </c>
@@ -5590,13 +5984,29 @@
       </c>
       <c r="D179" t="s">
         <v>180</v>
+      </c>
+      <c r="E179" t="s">
+        <v>414</v>
       </c>
       <c r="F179" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G179" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="H179" t="s">
+        <v>433</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J179" s="4"/>
+      <c r="K179" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>165</v>
       </c>
@@ -5614,7 +6024,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>165</v>
       </c>
@@ -5632,7 +6042,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>165</v>
       </c>
@@ -5650,7 +6060,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>165</v>
       </c>
@@ -5668,7 +6078,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>165</v>
       </c>
@@ -5680,13 +6090,31 @@
       </c>
       <c r="D184" t="s">
         <v>147</v>
+      </c>
+      <c r="E184" t="s">
+        <v>422</v>
       </c>
       <c r="F184" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G184" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="H184" t="s">
+        <v>396</v>
+      </c>
+      <c r="I184" t="s">
+        <v>499</v>
+      </c>
+      <c r="J184" t="s">
+        <v>486</v>
+      </c>
+      <c r="K184" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>165</v>
       </c>
@@ -5704,7 +6132,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>165</v>
       </c>
@@ -5718,26 +6146,26 @@
         <v>89</v>
       </c>
       <c r="E186" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F186" t="str">
         <f t="shared" si="2"/>
         <v>Non</v>
       </c>
-      <c r="G186" t="s">
-        <v>422</v>
+      <c r="G186" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="H186" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I186" t="s">
-        <v>423</v>
-      </c>
-      <c r="J186" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K186" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>165</v>
       </c>
@@ -5755,7 +6183,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>165</v>
       </c>
@@ -5773,7 +6201,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>165</v>
       </c>
@@ -5791,7 +6219,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>165</v>
       </c>
@@ -5809,7 +6237,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>165</v>
       </c>
@@ -5827,7 +6255,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>165</v>
       </c>
@@ -5845,7 +6273,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>165</v>
       </c>
@@ -5863,7 +6291,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>165</v>
       </c>
@@ -5881,7 +6309,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>165</v>
       </c>
@@ -5893,13 +6321,31 @@
       </c>
       <c r="D195" t="s">
         <v>117</v>
+      </c>
+      <c r="E195" t="s">
+        <v>419</v>
       </c>
       <c r="F195" t="str">
         <f t="shared" ref="F195:F420" si="3">IF(COUNTIF(D:D,"="&amp;D195)=1,"Oui","Non")</f>
         <v>Non</v>
       </c>
-    </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G195" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H195" t="s">
+        <v>433</v>
+      </c>
+      <c r="I195" t="s">
+        <v>496</v>
+      </c>
+      <c r="J195">
+        <v>8</v>
+      </c>
+      <c r="K195" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>165</v>
       </c>
@@ -5912,12 +6358,27 @@
       <c r="D196" t="s">
         <v>195</v>
       </c>
+      <c r="E196" t="s">
+        <v>395</v>
+      </c>
       <c r="F196" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G196" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H196" t="s">
+        <v>396</v>
+      </c>
+      <c r="I196" t="s">
+        <v>393</v>
+      </c>
+      <c r="K196" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>165</v>
       </c>
@@ -5930,12 +6391,30 @@
       <c r="D197" t="s">
         <v>196</v>
       </c>
+      <c r="E197" t="s">
+        <v>395</v>
+      </c>
       <c r="F197" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G197" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H197" t="s">
+        <v>403</v>
+      </c>
+      <c r="I197" t="s">
+        <v>500</v>
+      </c>
+      <c r="J197" t="s">
+        <v>486</v>
+      </c>
+      <c r="K197" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>165</v>
       </c>
@@ -5953,7 +6432,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="199" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>165</v>
       </c>
@@ -5971,7 +6450,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>165</v>
       </c>
@@ -5989,7 +6468,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>165</v>
       </c>
@@ -6007,7 +6486,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>165</v>
       </c>
@@ -6025,7 +6504,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="203" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>165</v>
       </c>
@@ -6038,12 +6517,27 @@
       <c r="D203" t="s">
         <v>146</v>
       </c>
+      <c r="E203" t="s">
+        <v>431</v>
+      </c>
       <c r="F203" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="204" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G203" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H203" t="s">
+        <v>433</v>
+      </c>
+      <c r="I203" t="s">
+        <v>393</v>
+      </c>
+      <c r="K203" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>165</v>
       </c>
@@ -6061,7 +6555,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="205" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>165</v>
       </c>
@@ -6079,7 +6573,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="206" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>165</v>
       </c>
@@ -6093,26 +6587,26 @@
         <v>89</v>
       </c>
       <c r="E206" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F206" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G206" t="s">
-        <v>422</v>
+      <c r="G206" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="H206" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I206" t="s">
-        <v>423</v>
-      </c>
-      <c r="J206" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K206" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>165</v>
       </c>
@@ -6125,12 +6619,27 @@
       <c r="D207" t="s">
         <v>205</v>
       </c>
+      <c r="E207" t="s">
+        <v>395</v>
+      </c>
       <c r="F207" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="208" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G207" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H207" t="s">
+        <v>433</v>
+      </c>
+      <c r="I207" t="s">
+        <v>477</v>
+      </c>
+      <c r="K207" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>165</v>
       </c>
@@ -6148,7 +6657,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>165</v>
       </c>
@@ -6166,7 +6675,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>165</v>
       </c>
@@ -6180,26 +6689,26 @@
         <v>30</v>
       </c>
       <c r="E210" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F210" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G210" t="s">
-        <v>427</v>
+      <c r="G210" s="4" t="s">
+        <v>420</v>
       </c>
       <c r="H210" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I210" t="s">
-        <v>428</v>
-      </c>
-      <c r="J210" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>421</v>
+      </c>
+      <c r="K210" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>165</v>
       </c>
@@ -6217,7 +6726,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>165</v>
       </c>
@@ -6235,7 +6744,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>165</v>
       </c>
@@ -6248,12 +6757,30 @@
       <c r="D213" t="s">
         <v>153</v>
       </c>
+      <c r="E213" t="s">
+        <v>409</v>
+      </c>
       <c r="F213" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G213" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H213" t="s">
+        <v>396</v>
+      </c>
+      <c r="I213" t="s">
+        <v>452</v>
+      </c>
+      <c r="J213">
+        <v>7</v>
+      </c>
+      <c r="K213" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>165</v>
       </c>
@@ -6271,7 +6798,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>165</v>
       </c>
@@ -6289,7 +6816,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>165</v>
       </c>
@@ -6302,12 +6829,27 @@
       <c r="D216" t="s">
         <v>195</v>
       </c>
+      <c r="E216" t="s">
+        <v>395</v>
+      </c>
       <c r="F216" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G216" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="H216" t="s">
+        <v>396</v>
+      </c>
+      <c r="I216" t="s">
+        <v>393</v>
+      </c>
+      <c r="K216" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>165</v>
       </c>
@@ -6325,7 +6867,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>165</v>
       </c>
@@ -6338,12 +6880,15 @@
       <c r="D218" t="s">
         <v>213</v>
       </c>
+      <c r="E218" t="s">
+        <v>302</v>
+      </c>
       <c r="F218" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
     </row>
-    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>165</v>
       </c>
@@ -6361,7 +6906,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>165</v>
       </c>
@@ -6379,7 +6924,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>165</v>
       </c>
@@ -6397,7 +6942,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>165</v>
       </c>
@@ -6415,7 +6960,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>165</v>
       </c>
@@ -6433,7 +6978,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>165</v>
       </c>
@@ -6451,7 +6996,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>165</v>
       </c>
@@ -6465,26 +7010,26 @@
         <v>108</v>
       </c>
       <c r="E225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F225" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G225" t="s">
-        <v>457</v>
+      <c r="G225" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="H225" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I225" t="s">
+        <v>393</v>
+      </c>
+      <c r="K225" t="s">
         <v>394</v>
       </c>
-      <c r="J225" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>165</v>
       </c>
@@ -6504,20 +7049,23 @@
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G226" t="s">
-        <v>455</v>
+      <c r="G226" s="4" t="s">
+        <v>444</v>
       </c>
       <c r="H226" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I226" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="J226" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+      <c r="K226" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>165</v>
       </c>
@@ -6530,12 +7078,27 @@
       <c r="D227" t="s">
         <v>205</v>
       </c>
+      <c r="E227" t="s">
+        <v>395</v>
+      </c>
       <c r="F227" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G227" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H227" t="s">
+        <v>433</v>
+      </c>
+      <c r="I227" t="s">
+        <v>477</v>
+      </c>
+      <c r="K227" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>165</v>
       </c>
@@ -6553,7 +7116,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>165</v>
       </c>
@@ -6571,7 +7134,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>165</v>
       </c>
@@ -6589,7 +7152,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>165</v>
       </c>
@@ -6610,7 +7173,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>165</v>
       </c>
@@ -6628,7 +7191,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>165</v>
       </c>
@@ -6642,26 +7205,29 @@
         <v>12</v>
       </c>
       <c r="E233" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F233" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G233" t="s">
-        <v>409</v>
+      <c r="G233" s="4" t="s">
+        <v>404</v>
       </c>
       <c r="H233" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I233" t="s">
-        <v>410</v>
-      </c>
-      <c r="J233" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+      <c r="J233">
+        <v>8</v>
+      </c>
+      <c r="K233" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>165</v>
       </c>
@@ -6679,7 +7245,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>165</v>
       </c>
@@ -6700,7 +7266,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="236" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>165</v>
       </c>
@@ -6713,12 +7279,30 @@
       <c r="D236" t="s">
         <v>196</v>
       </c>
+      <c r="E236" t="s">
+        <v>395</v>
+      </c>
       <c r="F236" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="237" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G236" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H236" t="s">
+        <v>403</v>
+      </c>
+      <c r="I236" t="s">
+        <v>500</v>
+      </c>
+      <c r="J236" t="s">
+        <v>486</v>
+      </c>
+      <c r="K236" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>165</v>
       </c>
@@ -6736,7 +7320,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="238" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>165</v>
       </c>
@@ -6754,7 +7338,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="239" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>165</v>
       </c>
@@ -6768,26 +7352,26 @@
         <v>59</v>
       </c>
       <c r="E239" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F239" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G239" t="s">
-        <v>443</v>
+      <c r="G239" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="H239" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I239" t="s">
-        <v>394</v>
-      </c>
-      <c r="J239" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K239" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>165</v>
       </c>
@@ -6805,7 +7389,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="241" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>165</v>
       </c>
@@ -6823,7 +7407,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="242" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>165</v>
       </c>
@@ -6837,26 +7421,26 @@
         <v>44</v>
       </c>
       <c r="E242" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="F242" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G242" t="s">
-        <v>430</v>
+      <c r="G242" s="4" t="s">
+        <v>423</v>
       </c>
       <c r="H242" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I242" t="s">
-        <v>431</v>
-      </c>
-      <c r="J242" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>424</v>
+      </c>
+      <c r="K242" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>165</v>
       </c>
@@ -6874,7 +7458,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="244" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>165</v>
       </c>
@@ -6892,7 +7476,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="245" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>165</v>
       </c>
@@ -6912,20 +7496,23 @@
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G245" t="s">
-        <v>399</v>
+      <c r="G245" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="H245" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I245" t="s">
-        <v>397</v>
-      </c>
-      <c r="J245" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+      <c r="J245">
+        <v>7</v>
+      </c>
+      <c r="K245" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>165</v>
       </c>
@@ -6938,12 +7525,27 @@
       <c r="D246" t="s">
         <v>236</v>
       </c>
+      <c r="E246" t="s">
+        <v>395</v>
+      </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="247" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G246" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H246" t="s">
+        <v>396</v>
+      </c>
+      <c r="I246" t="s">
+        <v>393</v>
+      </c>
+      <c r="K246" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>165</v>
       </c>
@@ -6961,7 +7563,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="248" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>165</v>
       </c>
@@ -6979,7 +7581,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="249" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>165</v>
       </c>
@@ -6997,7 +7599,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="250" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>165</v>
       </c>
@@ -7011,26 +7613,26 @@
         <v>28</v>
       </c>
       <c r="E250" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G250" t="s">
-        <v>424</v>
+      <c r="G250" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="H250" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I250" t="s">
-        <v>394</v>
-      </c>
-      <c r="J250" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K250" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>165</v>
       </c>
@@ -7048,7 +7650,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="252" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>165</v>
       </c>
@@ -7066,7 +7668,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="253" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>165</v>
       </c>
@@ -7079,12 +7681,30 @@
       <c r="D253" t="s">
         <v>134</v>
       </c>
+      <c r="E253" t="s">
+        <v>302</v>
+      </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="254" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G253" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H253" t="s">
+        <v>433</v>
+      </c>
+      <c r="I253" t="s">
+        <v>497</v>
+      </c>
+      <c r="J253" t="s">
+        <v>486</v>
+      </c>
+      <c r="K253" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>165</v>
       </c>
@@ -7102,7 +7722,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>165</v>
       </c>
@@ -7120,7 +7740,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="256" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>165</v>
       </c>
@@ -7134,26 +7754,29 @@
         <v>13</v>
       </c>
       <c r="E256" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G256" t="s">
-        <v>413</v>
+      <c r="G256" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="H256" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="I256" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="J256" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="257" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+      <c r="K256" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>165</v>
       </c>
@@ -7171,7 +7794,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="258" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>165</v>
       </c>
@@ -7189,7 +7812,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="259" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>165</v>
       </c>
@@ -7207,7 +7830,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="260" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>165</v>
       </c>
@@ -7225,7 +7848,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="261" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>165</v>
       </c>
@@ -7238,12 +7861,27 @@
       <c r="D261" t="s">
         <v>145</v>
       </c>
+      <c r="E261" t="s">
+        <v>463</v>
+      </c>
       <c r="F261" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G261" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H261" t="s">
+        <v>465</v>
+      </c>
+      <c r="I261" t="s">
+        <v>393</v>
+      </c>
+      <c r="K261" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>165</v>
       </c>
@@ -7257,26 +7895,26 @@
         <v>5</v>
       </c>
       <c r="E262" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F262" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G262" t="s">
+      <c r="G262" s="4" t="s">
         <v>392</v>
       </c>
       <c r="H262" t="s">
+        <v>433</v>
+      </c>
+      <c r="I262" t="s">
         <v>393</v>
       </c>
-      <c r="I262" t="s">
+      <c r="K262" t="s">
         <v>394</v>
       </c>
-      <c r="J262" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="263" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>165</v>
       </c>
@@ -7294,7 +7932,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="264" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>165</v>
       </c>
@@ -7308,26 +7946,26 @@
         <v>108</v>
       </c>
       <c r="E264" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F264" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G264" t="s">
-        <v>457</v>
+      <c r="G264" s="4" t="s">
+        <v>446</v>
       </c>
       <c r="H264" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="I264" t="s">
+        <v>393</v>
+      </c>
+      <c r="K264" t="s">
         <v>394</v>
       </c>
-      <c r="J264" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="265" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>165</v>
       </c>
@@ -7345,7 +7983,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="266" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>165</v>
       </c>
@@ -7363,7 +8001,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="267" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>165</v>
       </c>
@@ -7381,7 +8019,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="268" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>165</v>
       </c>
@@ -7399,7 +8037,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="269" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>165</v>
       </c>
@@ -7417,7 +8055,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="270" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>165</v>
       </c>
@@ -7435,7 +8073,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="271" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>165</v>
       </c>
@@ -7453,7 +8091,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="272" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>165</v>
       </c>
@@ -7471,7 +8109,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="273" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>165</v>
       </c>
@@ -7485,26 +8123,26 @@
         <v>16</v>
       </c>
       <c r="E273" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F273" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G273" t="s">
-        <v>416</v>
+      <c r="G273" s="4" t="s">
+        <v>410</v>
       </c>
       <c r="H273" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I273" t="s">
-        <v>417</v>
-      </c>
-      <c r="J273" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>411</v>
+      </c>
+      <c r="K273" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>165</v>
       </c>
@@ -7522,7 +8160,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="275" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>165</v>
       </c>
@@ -7536,26 +8174,26 @@
         <v>56</v>
       </c>
       <c r="E275" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F275" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G275" t="s">
-        <v>440</v>
+      <c r="G275" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="H275" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I275" t="s">
-        <v>394</v>
-      </c>
-      <c r="J275" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K275" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>165</v>
       </c>
@@ -7568,12 +8206,30 @@
       <c r="D276" t="s">
         <v>259</v>
       </c>
+      <c r="E276" t="s">
+        <v>431</v>
+      </c>
       <c r="F276" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="277" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G276" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H276" t="s">
+        <v>396</v>
+      </c>
+      <c r="I276" t="s">
+        <v>499</v>
+      </c>
+      <c r="J276">
+        <v>8</v>
+      </c>
+      <c r="K276" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>165</v>
       </c>
@@ -7591,7 +8247,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="278" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>165</v>
       </c>
@@ -7609,7 +8265,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>165</v>
       </c>
@@ -7627,7 +8283,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="280" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>165</v>
       </c>
@@ -7645,7 +8301,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="281" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>165</v>
       </c>
@@ -7663,7 +8319,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="282" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>165</v>
       </c>
@@ -7681,7 +8337,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="283" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>165</v>
       </c>
@@ -7695,26 +8351,26 @@
         <v>46</v>
       </c>
       <c r="E283" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F283" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G283" t="s">
-        <v>432</v>
+      <c r="G283" s="4" t="s">
+        <v>425</v>
       </c>
       <c r="H283" t="s">
+        <v>433</v>
+      </c>
+      <c r="I283" t="s">
         <v>393</v>
       </c>
-      <c r="I283" t="s">
+      <c r="K283" t="s">
         <v>394</v>
       </c>
-      <c r="J283" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="284" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="284" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>165</v>
       </c>
@@ -7728,26 +8384,26 @@
         <v>89</v>
       </c>
       <c r="E284" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F284" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G284" t="s">
-        <v>422</v>
+      <c r="G284" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="H284" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I284" t="s">
-        <v>423</v>
-      </c>
-      <c r="J284" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="285" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K284" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>165</v>
       </c>
@@ -7765,7 +8421,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="286" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>165</v>
       </c>
@@ -7783,7 +8439,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="287" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>165</v>
       </c>
@@ -7801,7 +8457,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="288" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>165</v>
       </c>
@@ -7815,26 +8471,26 @@
         <v>28</v>
       </c>
       <c r="E288" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F288" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G288" t="s">
-        <v>424</v>
+      <c r="G288" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="H288" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I288" t="s">
-        <v>394</v>
-      </c>
-      <c r="J288" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="289" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K288" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>165</v>
       </c>
@@ -7852,7 +8508,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="290" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>165</v>
       </c>
@@ -7866,26 +8522,26 @@
         <v>70</v>
       </c>
       <c r="E290" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F290" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G290" t="s">
-        <v>450</v>
+      <c r="G290" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="H290" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I290" t="s">
-        <v>394</v>
-      </c>
-      <c r="J290" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K290" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>165</v>
       </c>
@@ -7903,7 +8559,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>165</v>
       </c>
@@ -7921,7 +8577,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>165</v>
       </c>
@@ -7939,7 +8595,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>165</v>
       </c>
@@ -7957,7 +8613,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>165</v>
       </c>
@@ -7975,7 +8631,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="296" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>165</v>
       </c>
@@ -7993,7 +8649,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="297" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>165</v>
       </c>
@@ -8007,26 +8663,26 @@
         <v>59</v>
       </c>
       <c r="E297" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="F297" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G297" t="s">
-        <v>443</v>
+      <c r="G297" s="4" t="s">
+        <v>435</v>
       </c>
       <c r="H297" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I297" t="s">
-        <v>394</v>
-      </c>
-      <c r="J297" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K297" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>165</v>
       </c>
@@ -8040,26 +8696,29 @@
         <v>79</v>
       </c>
       <c r="E298" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F298" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G298" t="s">
-        <v>451</v>
+      <c r="G298" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="H298" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I298" t="s">
-        <v>452</v>
-      </c>
-      <c r="J298" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>494</v>
+      </c>
+      <c r="J298">
+        <v>6</v>
+      </c>
+      <c r="K298" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>165</v>
       </c>
@@ -8077,7 +8736,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="300" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>165</v>
       </c>
@@ -8095,7 +8754,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>165</v>
       </c>
@@ -8113,7 +8772,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>165</v>
       </c>
@@ -8131,7 +8790,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>165</v>
       </c>
@@ -8145,26 +8804,26 @@
         <v>63</v>
       </c>
       <c r="E303" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F303" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G303" t="s">
-        <v>445</v>
+      <c r="G303" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="H303" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I303" t="s">
-        <v>394</v>
-      </c>
-      <c r="J303" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K303" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>165</v>
       </c>
@@ -8182,7 +8841,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>165</v>
       </c>
@@ -8200,7 +8859,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="306" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>165</v>
       </c>
@@ -8218,7 +8877,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>165</v>
       </c>
@@ -8231,12 +8890,27 @@
       <c r="D307" t="s">
         <v>132</v>
       </c>
+      <c r="E307" t="s">
+        <v>431</v>
+      </c>
       <c r="F307" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G307" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H307" t="s">
+        <v>433</v>
+      </c>
+      <c r="I307" t="s">
+        <v>456</v>
+      </c>
+      <c r="K307" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>165</v>
       </c>
@@ -8254,7 +8928,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>165</v>
       </c>
@@ -8268,26 +8942,26 @@
         <v>70</v>
       </c>
       <c r="E309" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F309" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G309" t="s">
-        <v>450</v>
+      <c r="G309" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="H309" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I309" t="s">
-        <v>394</v>
-      </c>
-      <c r="J309" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K309" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>165</v>
       </c>
@@ -8305,7 +8979,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="311" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>165</v>
       </c>
@@ -8323,7 +8997,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>165</v>
       </c>
@@ -8336,12 +9010,30 @@
       <c r="D312" t="s">
         <v>288</v>
       </c>
+      <c r="E312" t="s">
+        <v>315</v>
+      </c>
       <c r="F312" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G312" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H312" t="s">
+        <v>396</v>
+      </c>
+      <c r="I312" t="s">
+        <v>488</v>
+      </c>
+      <c r="J312">
+        <v>7</v>
+      </c>
+      <c r="K312" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>165</v>
       </c>
@@ -8359,7 +9051,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>165</v>
       </c>
@@ -8377,7 +9069,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>165</v>
       </c>
@@ -8395,7 +9087,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="316" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>165</v>
       </c>
@@ -8413,7 +9105,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>165</v>
       </c>
@@ -8431,7 +9123,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="318" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>165</v>
       </c>
@@ -8449,7 +9141,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>165</v>
       </c>
@@ -8467,7 +9159,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>165</v>
       </c>
@@ -8485,7 +9177,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>165</v>
       </c>
@@ -8506,7 +9198,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>165</v>
       </c>
@@ -8527,7 +9219,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>165</v>
       </c>
@@ -8548,7 +9240,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="324" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>165</v>
       </c>
@@ -8568,20 +9260,23 @@
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G324" t="s">
-        <v>399</v>
+      <c r="G324" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="H324" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I324" t="s">
-        <v>397</v>
-      </c>
-      <c r="J324" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+      <c r="J324">
+        <v>7</v>
+      </c>
+      <c r="K324" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>165</v>
       </c>
@@ -8602,7 +9297,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>165</v>
       </c>
@@ -8623,7 +9318,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>165</v>
       </c>
@@ -8643,20 +9338,23 @@
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G327" s="1" t="s">
-        <v>401</v>
+      <c r="G327" s="5" t="s">
+        <v>399</v>
       </c>
       <c r="H327" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="I327" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="J327" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+      <c r="K327" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>165</v>
       </c>
@@ -8674,7 +9372,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>165</v>
       </c>
@@ -8695,7 +9393,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>165</v>
       </c>
@@ -8716,7 +9414,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>165</v>
       </c>
@@ -8737,7 +9435,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>165</v>
       </c>
@@ -8755,7 +9453,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="333" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>165</v>
       </c>
@@ -8775,8 +9473,23 @@
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G333" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="H333" t="s">
+        <v>396</v>
+      </c>
+      <c r="I333" t="s">
+        <v>488</v>
+      </c>
+      <c r="J333">
+        <v>7</v>
+      </c>
+      <c r="K333" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>165</v>
       </c>
@@ -8794,7 +9507,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>165</v>
       </c>
@@ -8812,7 +9525,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>165</v>
       </c>
@@ -8830,7 +9543,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>165</v>
       </c>
@@ -8843,12 +9556,28 @@
       <c r="D337" t="s">
         <v>180</v>
       </c>
+      <c r="E337" t="s">
+        <v>414</v>
+      </c>
       <c r="F337" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="338" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G337" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="H337" t="s">
+        <v>433</v>
+      </c>
+      <c r="I337" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J337" s="4"/>
+      <c r="K337" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>165</v>
       </c>
@@ -8869,7 +9598,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>165</v>
       </c>
@@ -8890,7 +9619,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="340" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>165</v>
       </c>
@@ -8908,7 +9637,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>165</v>
       </c>
@@ -8929,7 +9658,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>165</v>
       </c>
@@ -8947,7 +9676,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>165</v>
       </c>
@@ -8965,7 +9694,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>165</v>
       </c>
@@ -8983,7 +9712,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>165</v>
       </c>
@@ -8996,12 +9725,27 @@
       <c r="D345" t="s">
         <v>236</v>
       </c>
+      <c r="E345" t="s">
+        <v>395</v>
+      </c>
       <c r="F345" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G345" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="H345" t="s">
+        <v>396</v>
+      </c>
+      <c r="I345" t="s">
+        <v>393</v>
+      </c>
+      <c r="K345" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>165</v>
       </c>
@@ -9019,7 +9763,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>165</v>
       </c>
@@ -9037,7 +9781,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>165</v>
       </c>
@@ -9055,7 +9799,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>165</v>
       </c>
@@ -9069,26 +9813,29 @@
         <v>69</v>
       </c>
       <c r="E349" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G349" t="s">
-        <v>446</v>
+      <c r="G349" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="H349" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I349" t="s">
-        <v>447</v>
-      </c>
-      <c r="J349" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+      <c r="J349">
+        <v>5</v>
+      </c>
+      <c r="K349" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>165</v>
       </c>
@@ -9106,7 +9853,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>165</v>
       </c>
@@ -9124,7 +9871,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>165</v>
       </c>
@@ -9142,7 +9889,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="353" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>165</v>
       </c>
@@ -9160,7 +9907,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>165</v>
       </c>
@@ -9174,26 +9921,29 @@
         <v>13</v>
       </c>
       <c r="E354" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F354" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G354" t="s">
-        <v>413</v>
+      <c r="G354" s="4" t="s">
+        <v>407</v>
       </c>
       <c r="H354" t="s">
-        <v>393</v>
+        <v>433</v>
       </c>
       <c r="I354" t="s">
-        <v>402</v>
+        <v>489</v>
       </c>
       <c r="J354" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+      <c r="K354" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>165</v>
       </c>
@@ -9211,7 +9961,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>165</v>
       </c>
@@ -9229,7 +9979,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>165</v>
       </c>
@@ -9247,7 +9997,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>165</v>
       </c>
@@ -9260,12 +10010,28 @@
       <c r="D358" t="s">
         <v>180</v>
       </c>
+      <c r="E358" t="s">
+        <v>414</v>
+      </c>
       <c r="F358" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G358" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="H358" t="s">
+        <v>433</v>
+      </c>
+      <c r="I358" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="J358" s="4"/>
+      <c r="K358" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>165</v>
       </c>
@@ -9283,7 +10049,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="360" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>165</v>
       </c>
@@ -9304,7 +10070,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="361" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>165</v>
       </c>
@@ -9322,7 +10088,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="362" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>165</v>
       </c>
@@ -9340,7 +10106,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="363" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>165</v>
       </c>
@@ -9358,7 +10124,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>165</v>
       </c>
@@ -9376,7 +10142,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="365" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>165</v>
       </c>
@@ -9394,7 +10160,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="366" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>165</v>
       </c>
@@ -9407,12 +10173,27 @@
       <c r="D366" t="s">
         <v>205</v>
       </c>
+      <c r="E366" t="s">
+        <v>395</v>
+      </c>
       <c r="F366" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="367" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G366" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H366" t="s">
+        <v>433</v>
+      </c>
+      <c r="I366" t="s">
+        <v>477</v>
+      </c>
+      <c r="K366" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>165</v>
       </c>
@@ -9430,7 +10211,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>165</v>
       </c>
@@ -9448,7 +10229,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="369" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>165</v>
       </c>
@@ -9466,7 +10247,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>165</v>
       </c>
@@ -9479,12 +10260,27 @@
       <c r="D370" t="s">
         <v>132</v>
       </c>
+      <c r="E370" t="s">
+        <v>431</v>
+      </c>
       <c r="F370" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G370" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H370" t="s">
+        <v>433</v>
+      </c>
+      <c r="I370" t="s">
+        <v>456</v>
+      </c>
+      <c r="K370" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>165</v>
       </c>
@@ -9502,7 +10298,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>165</v>
       </c>
@@ -9520,7 +10316,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>165</v>
       </c>
@@ -9538,7 +10334,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="374" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>165</v>
       </c>
@@ -9556,7 +10352,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="375" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>165</v>
       </c>
@@ -9574,7 +10370,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="376" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>165</v>
       </c>
@@ -9592,7 +10388,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>165</v>
       </c>
@@ -9610,7 +10406,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>165</v>
       </c>
@@ -9623,12 +10419,27 @@
       <c r="D378" t="s">
         <v>352</v>
       </c>
+      <c r="E378" t="s">
+        <v>431</v>
+      </c>
       <c r="F378" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G378" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H378" t="s">
+        <v>433</v>
+      </c>
+      <c r="I378" t="s">
+        <v>393</v>
+      </c>
+      <c r="K378" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>165</v>
       </c>
@@ -9646,7 +10457,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>165</v>
       </c>
@@ -9659,12 +10470,15 @@
       <c r="D380" t="s">
         <v>354</v>
       </c>
+      <c r="E380" t="s">
+        <v>302</v>
+      </c>
       <c r="F380" t="str">
         <f t="shared" si="3"/>
         <v>Oui</v>
       </c>
     </row>
-    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>165</v>
       </c>
@@ -9682,7 +10496,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>165</v>
       </c>
@@ -9696,26 +10510,26 @@
         <v>87</v>
       </c>
       <c r="E382" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F382" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G382" t="s">
-        <v>453</v>
+      <c r="G382" s="4" t="s">
+        <v>443</v>
       </c>
       <c r="H382" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I382" t="s">
-        <v>394</v>
-      </c>
-      <c r="J382" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K382" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>165</v>
       </c>
@@ -9733,7 +10547,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>165</v>
       </c>
@@ -9751,7 +10565,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>165</v>
       </c>
@@ -9765,26 +10579,26 @@
         <v>89</v>
       </c>
       <c r="E385" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="F385" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G385" t="s">
-        <v>422</v>
+      <c r="G385" s="4" t="s">
+        <v>415</v>
       </c>
       <c r="H385" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I385" t="s">
-        <v>423</v>
-      </c>
-      <c r="J385" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+        <v>416</v>
+      </c>
+      <c r="K385" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>165</v>
       </c>
@@ -9802,7 +10616,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>165</v>
       </c>
@@ -9820,7 +10634,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="388" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>165</v>
       </c>
@@ -9838,7 +10652,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="389" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>165</v>
       </c>
@@ -9856,7 +10670,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="390" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>165</v>
       </c>
@@ -9874,7 +10688,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="391" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>165</v>
       </c>
@@ -9892,7 +10706,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="392" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>165</v>
       </c>
@@ -9910,7 +10724,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="393" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>165</v>
       </c>
@@ -9928,7 +10742,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="394" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>165</v>
       </c>
@@ -9946,7 +10760,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="395" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>165</v>
       </c>
@@ -9964,7 +10778,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="396" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>165</v>
       </c>
@@ -9985,7 +10799,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="397" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>165</v>
       </c>
@@ -9998,12 +10812,27 @@
       <c r="D397" t="s">
         <v>352</v>
       </c>
+      <c r="E397" t="s">
+        <v>431</v>
+      </c>
       <c r="F397" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="398" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G397" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="H397" t="s">
+        <v>433</v>
+      </c>
+      <c r="I397" t="s">
+        <v>393</v>
+      </c>
+      <c r="K397" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>165</v>
       </c>
@@ -10021,7 +10850,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="399" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>165</v>
       </c>
@@ -10034,12 +10863,30 @@
       <c r="D399" t="s">
         <v>141</v>
       </c>
+      <c r="E399" t="s">
+        <v>431</v>
+      </c>
       <c r="F399" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="400" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G399" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="H399" t="s">
+        <v>396</v>
+      </c>
+      <c r="I399" t="s">
+        <v>498</v>
+      </c>
+      <c r="J399">
+        <v>8</v>
+      </c>
+      <c r="K399" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>165</v>
       </c>
@@ -10057,7 +10904,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="401" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>165</v>
       </c>
@@ -10075,7 +10922,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="402" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>165</v>
       </c>
@@ -10093,7 +10940,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="403" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>165</v>
       </c>
@@ -10107,26 +10954,26 @@
         <v>94</v>
       </c>
       <c r="E403" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="F403" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G403" t="s">
-        <v>456</v>
+      <c r="G403" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="H403" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I403" t="s">
+        <v>393</v>
+      </c>
+      <c r="K403" t="s">
         <v>394</v>
       </c>
-      <c r="J403" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="404" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>165</v>
       </c>
@@ -10144,7 +10991,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="405" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>165</v>
       </c>
@@ -10162,7 +11009,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="406" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>165</v>
       </c>
@@ -10180,7 +11027,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="407" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>165</v>
       </c>
@@ -10198,7 +11045,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="408" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>165</v>
       </c>
@@ -10216,7 +11063,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="409" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>165</v>
       </c>
@@ -10234,7 +11081,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="410" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>165</v>
       </c>
@@ -10247,12 +11094,30 @@
       <c r="D410" t="s">
         <v>151</v>
       </c>
+      <c r="E410" t="s">
+        <v>431</v>
+      </c>
       <c r="F410" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="411" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G410" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="H410" t="s">
+        <v>396</v>
+      </c>
+      <c r="I410" t="s">
+        <v>468</v>
+      </c>
+      <c r="J410" t="s">
+        <v>486</v>
+      </c>
+      <c r="K410" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>165</v>
       </c>
@@ -10270,7 +11135,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="412" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>165</v>
       </c>
@@ -10288,7 +11153,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>165</v>
       </c>
@@ -10301,12 +11166,27 @@
       <c r="D413" t="s">
         <v>116</v>
       </c>
+      <c r="E413" t="s">
+        <v>450</v>
+      </c>
       <c r="F413" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="414" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G413" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H413" t="s">
+        <v>396</v>
+      </c>
+      <c r="I413" t="s">
+        <v>452</v>
+      </c>
+      <c r="K413" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>165</v>
       </c>
@@ -10324,7 +11204,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="415" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>165</v>
       </c>
@@ -10342,7 +11222,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="416" spans="1:10" hidden="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>165</v>
       </c>
@@ -10356,26 +11236,26 @@
         <v>56</v>
       </c>
       <c r="E416" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F416" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-      <c r="G416" t="s">
-        <v>440</v>
+      <c r="G416" s="4" t="s">
+        <v>432</v>
       </c>
       <c r="H416" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I416" t="s">
-        <v>394</v>
-      </c>
-      <c r="J416" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="417" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+        <v>393</v>
+      </c>
+      <c r="K416" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>165</v>
       </c>
@@ -10393,7 +11273,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>165</v>
       </c>
@@ -10406,12 +11286,30 @@
       <c r="D418" t="s">
         <v>259</v>
       </c>
+      <c r="E418" t="s">
+        <v>431</v>
+      </c>
       <c r="F418" t="str">
         <f t="shared" si="3"/>
         <v>Non</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+      <c r="G418" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="H418" t="s">
+        <v>396</v>
+      </c>
+      <c r="I418" t="s">
+        <v>499</v>
+      </c>
+      <c r="J418">
+        <v>8</v>
+      </c>
+      <c r="K418" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>165</v>
       </c>
@@ -10429,7 +11327,7 @@
         <v>Oui</v>
       </c>
     </row>
-    <row r="420" spans="1:6" hidden="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>165</v>
       </c>
@@ -10448,18 +11346,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J420" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Sagesse des voies ancestrales"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Non"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K420" xr:uid="{0A2BBA6B-F0F3-49A4-829D-3714ACDA9F1D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
